--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table21.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6361487-008E-D647-B657-0E2E8ED36993}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4565A2-C3C1-C049-B126-54EA4E7D5634}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20300" yWindow="2440" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20280" yWindow="2440" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
   <si>
     <t>Value</t>
   </si>
@@ -500,7 +500,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,8 +527,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>2806051</v>
